--- a/biology/Médecine/Jean-Pierre_Bonnafont/Jean-Pierre_Bonnafont.xlsx
+++ b/biology/Médecine/Jean-Pierre_Bonnafont/Jean-Pierre_Bonnafont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Bonnafont, né en 1805 et mort le 19 mai 1891 à Paris[1], est un médecin français, spécialiste de la mesure de l'acuité auditive ainsi que de la différenciation des surdités, novateur dans le domaine de l'otologie, inventeur de l'otoscope pour examiner l'oreille, instrument précurseur de l'endoscopie, créateur de l'aération transtympanique, membre de l'Académie de médecine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Bonnafont, né en 1805 et mort le 19 mai 1891 à Paris, est un médecin français, spécialiste de la mesure de l'acuité auditive ainsi que de la différenciation des surdités, novateur dans le domaine de l'otologie, inventeur de l'otoscope pour examiner l'oreille, instrument précurseur de l'endoscopie, créateur de l'aération transtympanique, membre de l'Académie de médecine.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Bonnafont naît le 22 janvier 1805 à Plaisance, dans le département du Gers[2]. Il est le fils de Laurent Bonnafont, instituteur, et de Françoise Moyrie, d'une famille de milieu modeste. Son parrain est un médecin, le docteur Maur[3]. Son petit fils est Louis Bonnafont, né à Plaisance le 25 août 1874, décédé à Paris, ancien huissier près la Cour de Cassation à Paris, croix de guerre (1914-1918), et époux d'Aglaé Sabail (1878), fille d'Alfred Sabail et grand-tante de Jean Charles L'officier (1913-1974).
-Le jeune Jean-Pierre, attiré par la chirurgie, est reçu en août 1826 à l'officiat de santé[3]. Mais l'année suivante il est appelé par la conscription, et affecté à Paris, au 6e régiment de la Garde royale[2],[4]. Son colonel obtient qu'il puisse postuler comme élève chirurgien à l'Hôpital d'instruction des armées du Val-de-Grâce, et il y est admis en décembre 1828[4]. Il commence donc ses études de médecine au Val-de-Grâce[2],[5], et y bénéficie notamment de l'enseignement de J.-P. Gama et surtout du chirurgien Louis Jacques Bégin. Préparateur à l'amphithéâtre, il approfondit particulièrement sa connaissance de l'oreille et commence à imaginer un appareil pour éclairer le conduit auditif[4].
-Le duc des Cars favorise son intégration dans l'ambulance de la 3e division d'infanterie, comme sous-aide-major, pour participer à la Campagne d'Algérie[2]. Jean-Pierre Bonnafont participe ainsi au combat de Chapelle-Fontaine et à la prise d'Alger en 1830, puis à la campagne de Médéa en 1832[2],[5].
-Revenu en France pour présenter sa thèse sur les plaies par arme à feu, il est reçu docteur en médecine à Montpellier en 1834, puis repart en Algérie. Il y participe à la première expédition de Constantine en 1835, au siège de Constantine en 1837, à l'expédition de la Talna, puis à la marche sur Blida[2],[5].
-Bonnafont est de retour en France en 1842, il y devient médecin principal à l'École d'état-major[2]. Il est reconnu comme spécialiste de la mesure de l'acuité auditive ainsi que comme spécialiste de la différenciation des cas de surdité[6]. Il prend sa retraite en 1860, et se retire à Antony[2]. Il meurt le 19 mai 1891[5],[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Bonnafont naît le 22 janvier 1805 à Plaisance, dans le département du Gers. Il est le fils de Laurent Bonnafont, instituteur, et de Françoise Moyrie, d'une famille de milieu modeste. Son parrain est un médecin, le docteur Maur. Son petit fils est Louis Bonnafont, né à Plaisance le 25 août 1874, décédé à Paris, ancien huissier près la Cour de Cassation à Paris, croix de guerre (1914-1918), et époux d'Aglaé Sabail (1878), fille d'Alfred Sabail et grand-tante de Jean Charles L'officier (1913-1974).
+Le jeune Jean-Pierre, attiré par la chirurgie, est reçu en août 1826 à l'officiat de santé. Mais l'année suivante il est appelé par la conscription, et affecté à Paris, au 6e régiment de la Garde royale,. Son colonel obtient qu'il puisse postuler comme élève chirurgien à l'Hôpital d'instruction des armées du Val-de-Grâce, et il y est admis en décembre 1828. Il commence donc ses études de médecine au Val-de-Grâce et y bénéficie notamment de l'enseignement de J.-P. Gama et surtout du chirurgien Louis Jacques Bégin. Préparateur à l'amphithéâtre, il approfondit particulièrement sa connaissance de l'oreille et commence à imaginer un appareil pour éclairer le conduit auditif.
+Le duc des Cars favorise son intégration dans l'ambulance de la 3e division d'infanterie, comme sous-aide-major, pour participer à la Campagne d'Algérie. Jean-Pierre Bonnafont participe ainsi au combat de Chapelle-Fontaine et à la prise d'Alger en 1830, puis à la campagne de Médéa en 1832,.
+Revenu en France pour présenter sa thèse sur les plaies par arme à feu, il est reçu docteur en médecine à Montpellier en 1834, puis repart en Algérie. Il y participe à la première expédition de Constantine en 1835, au siège de Constantine en 1837, à l'expédition de la Talna, puis à la marche sur Blida,.
+Bonnafont est de retour en France en 1842, il y devient médecin principal à l'École d'état-major. Il est reconnu comme spécialiste de la mesure de l'acuité auditive ainsi que comme spécialiste de la différenciation des cas de surdité. Il prend sa retraite en 1860, et se retire à Antony. Il meurt le 19 mai 1891.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Innovations et travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Bonnafont invente en 1834 le premier otoscope, instrument pour examiner l'oreille avec vision latérale, grâce à une source lumineuse réfléchie vers l'oreille par un miroir[5],[9]. Il innove aussi en chirurgie : il opère en 1843 une « imperforation de l'oreille », en ouvrant par un trocart pour créer un conduit jusqu'à l'oreille interne, et en cautérisant au nitrate d'argent les parois de ce conduit[5]. Il crée aussi l'aération transtympanique[9]. Dans le domaine de l'hygiène, il fait équiper chaque soldat d'une gamelle individuelle[2].
-Il publie de nombreux ouvrages et mémoires, qui portent notamment sur l'otologie, sur les maladies coloniales et les épidémies, sur l'hygiène des soldats en campagne, sur l'organisation des secours[2]. Il fait paraître en 1860 son Traité théorique et pratique des maladies de l'oreille et des organes de l'audition, réédité en 1873. Il publie aussi des souvenirs sur ses séjours et ses campagnes en Algérie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Bonnafont invente en 1834 le premier otoscope, instrument pour examiner l'oreille avec vision latérale, grâce à une source lumineuse réfléchie vers l'oreille par un miroir,. Il innove aussi en chirurgie : il opère en 1843 une « imperforation de l'oreille », en ouvrant par un trocart pour créer un conduit jusqu'à l'oreille interne, et en cautérisant au nitrate d'argent les parois de ce conduit. Il crée aussi l'aération transtympanique. Dans le domaine de l'hygiène, il fait équiper chaque soldat d'une gamelle individuelle.
+Il publie de nombreux ouvrages et mémoires, qui portent notamment sur l'otologie, sur les maladies coloniales et les épidémies, sur l'hygiène des soldats en campagne, sur l'organisation des secours. Il fait paraître en 1860 son Traité théorique et pratique des maladies de l'oreille et des organes de l'audition, réédité en 1873. Il publie aussi des souvenirs sur ses séjours et ses campagnes en Algérie.
 </t>
         </is>
       </c>
@@ -580,16 +596,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Décorations
-Officier de la Légion d'honneur, 1856[10].
-Deux citations à l'ordre de l'armée, 1839 et 1840[10].
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur, 1856.
+Deux citations à l'ordre de l'armée, 1839 et 1840.
 Commandeur de l'ordre de Notre-Dame de Guadalupe (Mexique).
 Chevalier de l'ordre de Léopold (Belgique).
-Chevalier de l'ordre de l'Immaculée Conception de Vila Viçosa (Portugal).
-Titres académiques
-Membre de l'Académie de médecine[11].
-Membre correspondant de l'Académie de Madrid et de l'Académie de Moscou[10].
-Membre correspondant des sociétés des sciences naturelles de Bruxelles, d'Odessa, de Marseille, de Nantes, et d'autres[10].</t>
+Chevalier de l'ordre de l'Immaculée Conception de Vila Viçosa (Portugal).</t>
         </is>
       </c>
     </row>
@@ -614,10 +631,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distinctions et hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Titres académiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Membre de l'Académie de médecine.
+Membre correspondant de l'Académie de Madrid et de l'Académie de Moscou.
+Membre correspondant des sociétés des sciences naturelles de Bruxelles, d'Odessa, de Marseille, de Nantes, et d'autres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Bonnafont</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Bonnafont</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Considérations sur quelques pluies d'armes à feu observées durant la campagne d'Afrique, et de quelques procédés opératoires particuliers, 1834.
 Géographie médicale d'Alger et de ses environs, 1839.
